--- a/resources/maps/T-Boy's ResarchTrain 1.xlsx
+++ b/resources/maps/T-Boy's ResarchTrain 1.xlsx
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,16 +550,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -556,89 +568,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +658,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,6 +722,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F3541A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -969,8 +995,8 @@
   <sheetPr/>
   <dimension ref="A1:FZ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" topLeftCell="EJ1" workbookViewId="0">
-      <selection activeCell="EW8" sqref="EW8"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AM89" sqref="AM89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
@@ -1420,7 +1446,9 @@
       <c r="ER1" s="1">
         <v>146</v>
       </c>
-      <c r="ES1" s="1"/>
+      <c r="ES1" s="1">
+        <v>147</v>
+      </c>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
       <c r="EV1" s="1"/>
@@ -1900,7 +1928,9 @@
       <c r="ER2" s="1">
         <v>0</v>
       </c>
-      <c r="ES2" s="1"/>
+      <c r="ES2" s="1">
+        <v>0</v>
+      </c>
       <c r="ET2" s="1"/>
       <c r="EU2" s="1"/>
       <c r="EV2" s="1"/>
@@ -2380,7 +2410,9 @@
       <c r="ER3" s="1">
         <v>0</v>
       </c>
-      <c r="ES3" s="1"/>
+      <c r="ES3" s="1">
+        <v>0</v>
+      </c>
       <c r="ET3" s="1"/>
       <c r="EU3" s="1"/>
       <c r="EV3" s="1"/>
@@ -2860,7 +2892,9 @@
       <c r="ER4" s="1">
         <v>0</v>
       </c>
-      <c r="ES4" s="1"/>
+      <c r="ES4" s="1">
+        <v>0</v>
+      </c>
       <c r="ET4" s="1"/>
       <c r="EU4" s="1"/>
       <c r="EV4" s="1"/>
@@ -3340,7 +3374,9 @@
       <c r="ER5" s="1">
         <v>0</v>
       </c>
-      <c r="ES5" s="1"/>
+      <c r="ES5" s="1">
+        <v>0</v>
+      </c>
       <c r="ET5" s="1"/>
       <c r="EU5" s="1"/>
       <c r="EV5" s="1"/>
@@ -3820,7 +3856,9 @@
       <c r="ER6" s="1">
         <v>0</v>
       </c>
-      <c r="ES6" s="1"/>
+      <c r="ES6" s="1">
+        <v>0</v>
+      </c>
       <c r="ET6" s="1"/>
       <c r="EU6" s="1"/>
       <c r="EV6" s="1"/>
@@ -4300,7 +4338,9 @@
       <c r="ER7" s="1">
         <v>0</v>
       </c>
-      <c r="ES7" s="1"/>
+      <c r="ES7" s="1">
+        <v>0</v>
+      </c>
       <c r="ET7" s="1"/>
       <c r="EU7" s="1"/>
       <c r="EV7" s="1"/>
@@ -4780,7 +4820,9 @@
       <c r="ER8" s="1">
         <v>0</v>
       </c>
-      <c r="ES8" s="1"/>
+      <c r="ES8" s="1">
+        <v>0</v>
+      </c>
       <c r="ET8" s="1"/>
       <c r="EU8" s="1"/>
       <c r="EV8" s="1"/>
@@ -5260,7 +5302,9 @@
       <c r="ER9" s="1">
         <v>0</v>
       </c>
-      <c r="ES9" s="1"/>
+      <c r="ES9" s="1">
+        <v>0</v>
+      </c>
       <c r="ET9" s="1"/>
       <c r="EU9" s="1"/>
       <c r="EV9" s="1"/>
@@ -5740,7 +5784,9 @@
       <c r="ER10" s="1">
         <v>0</v>
       </c>
-      <c r="ES10" s="1"/>
+      <c r="ES10" s="1">
+        <v>0</v>
+      </c>
       <c r="ET10" s="1"/>
       <c r="EU10" s="1"/>
       <c r="EV10" s="1"/>
@@ -6220,7 +6266,9 @@
       <c r="ER11" s="1">
         <v>0</v>
       </c>
-      <c r="ES11" s="1"/>
+      <c r="ES11" s="1">
+        <v>0</v>
+      </c>
       <c r="ET11" s="1"/>
       <c r="EU11" s="1"/>
       <c r="EV11" s="1"/>
@@ -6700,7 +6748,9 @@
       <c r="ER12" s="1">
         <v>0</v>
       </c>
-      <c r="ES12" s="1"/>
+      <c r="ES12" s="1">
+        <v>0</v>
+      </c>
       <c r="ET12" s="1"/>
       <c r="EU12" s="1"/>
       <c r="EV12" s="1"/>
@@ -7180,7 +7230,9 @@
       <c r="ER13" s="1">
         <v>0</v>
       </c>
-      <c r="ES13" s="1"/>
+      <c r="ES13" s="1">
+        <v>0</v>
+      </c>
       <c r="ET13" s="1"/>
       <c r="EU13" s="1"/>
       <c r="EV13" s="1"/>
@@ -7561,8 +7613,8 @@
       <c r="DK14" s="1">
         <v>0</v>
       </c>
-      <c r="DL14" s="1">
-        <v>0</v>
+      <c r="DL14" s="5">
+        <v>2</v>
       </c>
       <c r="DM14" s="1">
         <v>0</v>
@@ -7660,7 +7712,9 @@
       <c r="ER14" s="1">
         <v>0</v>
       </c>
-      <c r="ES14" s="1"/>
+      <c r="ES14" s="1">
+        <v>0</v>
+      </c>
       <c r="ET14" s="1"/>
       <c r="EU14" s="1"/>
       <c r="EV14" s="1"/>
@@ -8140,7 +8194,9 @@
       <c r="ER15" s="1">
         <v>0</v>
       </c>
-      <c r="ES15" s="1"/>
+      <c r="ES15" s="1">
+        <v>0</v>
+      </c>
       <c r="ET15" s="1"/>
       <c r="EU15" s="1"/>
       <c r="EV15" s="1"/>
@@ -8521,8 +8577,8 @@
       <c r="DK16" s="1">
         <v>0</v>
       </c>
-      <c r="DL16" s="1">
-        <v>0</v>
+      <c r="DL16" s="5">
+        <v>2</v>
       </c>
       <c r="DM16" s="1">
         <v>0</v>
@@ -8620,7 +8676,9 @@
       <c r="ER16" s="1">
         <v>0</v>
       </c>
-      <c r="ES16" s="1"/>
+      <c r="ES16" s="1">
+        <v>0</v>
+      </c>
       <c r="ET16" s="1"/>
       <c r="EU16" s="1"/>
       <c r="EV16" s="1"/>
@@ -9001,8 +9059,8 @@
       <c r="DK17" s="1">
         <v>0</v>
       </c>
-      <c r="DL17" s="1">
-        <v>0</v>
+      <c r="DL17" s="5">
+        <v>2</v>
       </c>
       <c r="DM17" s="1">
         <v>0</v>
@@ -9100,7 +9158,9 @@
       <c r="ER17" s="1">
         <v>0</v>
       </c>
-      <c r="ES17" s="1"/>
+      <c r="ES17" s="1">
+        <v>0</v>
+      </c>
       <c r="ET17" s="1"/>
       <c r="EU17" s="1"/>
       <c r="EV17" s="1"/>
@@ -9481,8 +9541,8 @@
       <c r="DK18" s="1">
         <v>0</v>
       </c>
-      <c r="DL18" s="1">
-        <v>0</v>
+      <c r="DL18" s="5">
+        <v>2</v>
       </c>
       <c r="DM18" s="1">
         <v>0</v>
@@ -9580,7 +9640,9 @@
       <c r="ER18" s="1">
         <v>0</v>
       </c>
-      <c r="ES18" s="1"/>
+      <c r="ES18" s="1">
+        <v>0</v>
+      </c>
       <c r="ET18" s="1"/>
       <c r="EU18" s="1"/>
       <c r="EV18" s="1"/>
@@ -9961,8 +10023,8 @@
       <c r="DK19" s="1">
         <v>0</v>
       </c>
-      <c r="DL19" s="1">
-        <v>0</v>
+      <c r="DL19" s="5">
+        <v>2</v>
       </c>
       <c r="DM19" s="1">
         <v>0</v>
@@ -10060,7 +10122,9 @@
       <c r="ER19" s="1">
         <v>0</v>
       </c>
-      <c r="ES19" s="1"/>
+      <c r="ES19" s="1">
+        <v>0</v>
+      </c>
       <c r="ET19" s="1"/>
       <c r="EU19" s="1"/>
       <c r="EV19" s="1"/>
@@ -10165,92 +10229,92 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0</v>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>1</v>
       </c>
       <c r="BA20" s="1">
         <v>0</v>
@@ -10372,95 +10436,95 @@
       <c r="CN20" s="1">
         <v>0</v>
       </c>
-      <c r="CO20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR20" s="1">
-        <v>0</v>
+      <c r="CO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY20" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DD20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DI20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DJ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DK20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DL20" s="4">
+        <v>3</v>
+      </c>
+      <c r="DM20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DN20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="DR20" s="3">
+        <v>1</v>
       </c>
       <c r="DS20" s="1">
         <v>0</v>
@@ -10540,7 +10604,9 @@
       <c r="ER20" s="1">
         <v>0</v>
       </c>
-      <c r="ES20" s="1"/>
+      <c r="ES20" s="1">
+        <v>0</v>
+      </c>
       <c r="ET20" s="1"/>
       <c r="EU20" s="1"/>
       <c r="EV20" s="1"/>
@@ -10711,8 +10777,8 @@
       <c r="AS21" s="1">
         <v>0</v>
       </c>
-      <c r="AT21" s="1">
-        <v>0</v>
+      <c r="AT21" s="5">
+        <v>2</v>
       </c>
       <c r="AU21" s="1">
         <v>0</v>
@@ -10921,8 +10987,8 @@
       <c r="DK21" s="1">
         <v>0</v>
       </c>
-      <c r="DL21" s="1">
-        <v>0</v>
+      <c r="DL21" s="5">
+        <v>2</v>
       </c>
       <c r="DM21" s="1">
         <v>0</v>
@@ -11020,7 +11086,9 @@
       <c r="ER21" s="1">
         <v>0</v>
       </c>
-      <c r="ES21" s="1"/>
+      <c r="ES21" s="1">
+        <v>0</v>
+      </c>
       <c r="ET21" s="1"/>
       <c r="EU21" s="1"/>
       <c r="EV21" s="1"/>
@@ -11191,8 +11259,8 @@
       <c r="AS22" s="1">
         <v>0</v>
       </c>
-      <c r="AT22" s="1">
-        <v>0</v>
+      <c r="AT22" s="5">
+        <v>2</v>
       </c>
       <c r="AU22" s="1">
         <v>0</v>
@@ -11401,8 +11469,8 @@
       <c r="DK22" s="1">
         <v>0</v>
       </c>
-      <c r="DL22" s="1">
-        <v>0</v>
+      <c r="DL22" s="5">
+        <v>2</v>
       </c>
       <c r="DM22" s="1">
         <v>0</v>
@@ -11500,7 +11568,9 @@
       <c r="ER22" s="1">
         <v>0</v>
       </c>
-      <c r="ES22" s="1"/>
+      <c r="ES22" s="1">
+        <v>0</v>
+      </c>
       <c r="ET22" s="1"/>
       <c r="EU22" s="1"/>
       <c r="EV22" s="1"/>
@@ -11671,8 +11741,8 @@
       <c r="AS23" s="1">
         <v>0</v>
       </c>
-      <c r="AT23" s="1">
-        <v>0</v>
+      <c r="AT23" s="5">
+        <v>2</v>
       </c>
       <c r="AU23" s="1">
         <v>0</v>
@@ -11881,8 +11951,8 @@
       <c r="DK23" s="1">
         <v>0</v>
       </c>
-      <c r="DL23" s="1">
-        <v>0</v>
+      <c r="DL23" s="5">
+        <v>2</v>
       </c>
       <c r="DM23" s="1">
         <v>0</v>
@@ -11980,7 +12050,9 @@
       <c r="ER23" s="1">
         <v>0</v>
       </c>
-      <c r="ES23" s="1"/>
+      <c r="ES23" s="1">
+        <v>0</v>
+      </c>
       <c r="ET23" s="1"/>
       <c r="EU23" s="1"/>
       <c r="EV23" s="1"/>
@@ -12151,8 +12223,8 @@
       <c r="AS24" s="1">
         <v>0</v>
       </c>
-      <c r="AT24" s="1">
-        <v>0</v>
+      <c r="AT24" s="5">
+        <v>2</v>
       </c>
       <c r="AU24" s="1">
         <v>0</v>
@@ -12361,8 +12433,8 @@
       <c r="DK24" s="1">
         <v>0</v>
       </c>
-      <c r="DL24" s="1">
-        <v>0</v>
+      <c r="DL24" s="5">
+        <v>2</v>
       </c>
       <c r="DM24" s="1">
         <v>0</v>
@@ -12460,7 +12532,9 @@
       <c r="ER24" s="1">
         <v>0</v>
       </c>
-      <c r="ES24" s="1"/>
+      <c r="ES24" s="1">
+        <v>0</v>
+      </c>
       <c r="ET24" s="1"/>
       <c r="EU24" s="1"/>
       <c r="EV24" s="1"/>
@@ -12631,8 +12705,8 @@
       <c r="AS25" s="1">
         <v>0</v>
       </c>
-      <c r="AT25" s="1">
-        <v>0</v>
+      <c r="AT25" s="5">
+        <v>2</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -12691,38 +12765,38 @@
       <c r="BM25" s="1">
         <v>0</v>
       </c>
-      <c r="BN25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BW25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BX25" s="2">
-        <v>1</v>
+      <c r="BN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>0</v>
       </c>
       <c r="BY25" s="1">
         <v>0</v>
@@ -12841,8 +12915,8 @@
       <c r="DK25" s="1">
         <v>0</v>
       </c>
-      <c r="DL25" s="1">
-        <v>0</v>
+      <c r="DL25" s="5">
+        <v>2</v>
       </c>
       <c r="DM25" s="1">
         <v>0</v>
@@ -12940,7 +13014,9 @@
       <c r="ER25" s="1">
         <v>0</v>
       </c>
-      <c r="ES25" s="1"/>
+      <c r="ES25" s="1">
+        <v>0</v>
+      </c>
       <c r="ET25" s="1"/>
       <c r="EU25" s="1"/>
       <c r="EV25" s="1"/>
@@ -13111,8 +13187,8 @@
       <c r="AS26" s="1">
         <v>0</v>
       </c>
-      <c r="AT26" s="1">
-        <v>0</v>
+      <c r="AT26" s="5">
+        <v>2</v>
       </c>
       <c r="AU26" s="1">
         <v>0</v>
@@ -13321,8 +13397,8 @@
       <c r="DK26" s="1">
         <v>0</v>
       </c>
-      <c r="DL26" s="1">
-        <v>0</v>
+      <c r="DL26" s="5">
+        <v>2</v>
       </c>
       <c r="DM26" s="1">
         <v>0</v>
@@ -13420,7 +13496,9 @@
       <c r="ER26" s="1">
         <v>0</v>
       </c>
-      <c r="ES26" s="1"/>
+      <c r="ES26" s="1">
+        <v>0</v>
+      </c>
       <c r="ET26" s="1"/>
       <c r="EU26" s="1"/>
       <c r="EV26" s="1"/>
@@ -13591,8 +13669,8 @@
       <c r="AS27" s="1">
         <v>0</v>
       </c>
-      <c r="AT27" s="1">
-        <v>0</v>
+      <c r="AT27" s="5">
+        <v>2</v>
       </c>
       <c r="AU27" s="1">
         <v>0</v>
@@ -13801,8 +13879,8 @@
       <c r="DK27" s="1">
         <v>0</v>
       </c>
-      <c r="DL27" s="1">
-        <v>0</v>
+      <c r="DL27" s="5">
+        <v>2</v>
       </c>
       <c r="DM27" s="1">
         <v>0</v>
@@ -13900,7 +13978,9 @@
       <c r="ER27" s="1">
         <v>0</v>
       </c>
-      <c r="ES27" s="1"/>
+      <c r="ES27" s="1">
+        <v>0</v>
+      </c>
       <c r="ET27" s="1"/>
       <c r="EU27" s="1"/>
       <c r="EV27" s="1"/>
@@ -14071,8 +14151,8 @@
       <c r="AS28" s="1">
         <v>0</v>
       </c>
-      <c r="AT28" s="1">
-        <v>0</v>
+      <c r="AT28" s="5">
+        <v>2</v>
       </c>
       <c r="AU28" s="1">
         <v>0</v>
@@ -14281,8 +14361,8 @@
       <c r="DK28" s="1">
         <v>0</v>
       </c>
-      <c r="DL28" s="1">
-        <v>0</v>
+      <c r="DL28" s="5">
+        <v>2</v>
       </c>
       <c r="DM28" s="1">
         <v>0</v>
@@ -14380,7 +14460,9 @@
       <c r="ER28" s="1">
         <v>0</v>
       </c>
-      <c r="ES28" s="1"/>
+      <c r="ES28" s="1">
+        <v>0</v>
+      </c>
       <c r="ET28" s="1"/>
       <c r="EU28" s="1"/>
       <c r="EV28" s="1"/>
@@ -14551,8 +14633,8 @@
       <c r="AS29" s="1">
         <v>0</v>
       </c>
-      <c r="AT29" s="1">
-        <v>0</v>
+      <c r="AT29" s="5">
+        <v>2</v>
       </c>
       <c r="AU29" s="1">
         <v>0</v>
@@ -14761,8 +14843,8 @@
       <c r="DK29" s="1">
         <v>0</v>
       </c>
-      <c r="DL29" s="1">
-        <v>0</v>
+      <c r="DL29" s="5">
+        <v>2</v>
       </c>
       <c r="DM29" s="1">
         <v>0</v>
@@ -14860,7 +14942,9 @@
       <c r="ER29" s="1">
         <v>0</v>
       </c>
-      <c r="ES29" s="1"/>
+      <c r="ES29" s="1">
+        <v>0</v>
+      </c>
       <c r="ET29" s="1"/>
       <c r="EU29" s="1"/>
       <c r="EV29" s="1"/>
@@ -15031,8 +15115,8 @@
       <c r="AS30" s="1">
         <v>0</v>
       </c>
-      <c r="AT30" s="1">
-        <v>0</v>
+      <c r="AT30" s="5">
+        <v>2</v>
       </c>
       <c r="AU30" s="1">
         <v>0</v>
@@ -15241,8 +15325,8 @@
       <c r="DK30" s="1">
         <v>0</v>
       </c>
-      <c r="DL30" s="1">
-        <v>0</v>
+      <c r="DL30" s="5">
+        <v>2</v>
       </c>
       <c r="DM30" s="1">
         <v>0</v>
@@ -15340,7 +15424,9 @@
       <c r="ER30" s="1">
         <v>0</v>
       </c>
-      <c r="ES30" s="1"/>
+      <c r="ES30" s="1">
+        <v>0</v>
+      </c>
       <c r="ET30" s="1"/>
       <c r="EU30" s="1"/>
       <c r="EV30" s="1"/>
@@ -15511,8 +15597,8 @@
       <c r="AS31" s="1">
         <v>0</v>
       </c>
-      <c r="AT31" s="1">
-        <v>0</v>
+      <c r="AT31" s="5">
+        <v>2</v>
       </c>
       <c r="AU31" s="1">
         <v>0</v>
@@ -15721,8 +15807,8 @@
       <c r="DK31" s="1">
         <v>0</v>
       </c>
-      <c r="DL31" s="1">
-        <v>0</v>
+      <c r="DL31" s="5">
+        <v>2</v>
       </c>
       <c r="DM31" s="1">
         <v>0</v>
@@ -15820,7 +15906,9 @@
       <c r="ER31" s="1">
         <v>0</v>
       </c>
-      <c r="ES31" s="1"/>
+      <c r="ES31" s="1">
+        <v>0</v>
+      </c>
       <c r="ET31" s="1"/>
       <c r="EU31" s="1"/>
       <c r="EV31" s="1"/>
@@ -15991,8 +16079,8 @@
       <c r="AS32" s="1">
         <v>0</v>
       </c>
-      <c r="AT32" s="1">
-        <v>0</v>
+      <c r="AT32" s="5">
+        <v>2</v>
       </c>
       <c r="AU32" s="1">
         <v>0</v>
@@ -16201,8 +16289,8 @@
       <c r="DK32" s="1">
         <v>0</v>
       </c>
-      <c r="DL32" s="1">
-        <v>0</v>
+      <c r="DL32" s="5">
+        <v>2</v>
       </c>
       <c r="DM32" s="1">
         <v>0</v>
@@ -16300,7 +16388,9 @@
       <c r="ER32" s="1">
         <v>0</v>
       </c>
-      <c r="ES32" s="1"/>
+      <c r="ES32" s="1">
+        <v>0</v>
+      </c>
       <c r="ET32" s="1"/>
       <c r="EU32" s="1"/>
       <c r="EV32" s="1"/>
@@ -16471,8 +16561,8 @@
       <c r="AS33" s="1">
         <v>0</v>
       </c>
-      <c r="AT33" s="1">
-        <v>0</v>
+      <c r="AT33" s="5">
+        <v>2</v>
       </c>
       <c r="AU33" s="1">
         <v>0</v>
@@ -16681,8 +16771,8 @@
       <c r="DK33" s="1">
         <v>0</v>
       </c>
-      <c r="DL33" s="1">
-        <v>0</v>
+      <c r="DL33" s="5">
+        <v>2</v>
       </c>
       <c r="DM33" s="1">
         <v>0</v>
@@ -16780,7 +16870,9 @@
       <c r="ER33" s="1">
         <v>0</v>
       </c>
-      <c r="ES33" s="1"/>
+      <c r="ES33" s="1">
+        <v>0</v>
+      </c>
       <c r="ET33" s="1"/>
       <c r="EU33" s="1"/>
       <c r="EV33" s="1"/>
@@ -16951,8 +17043,8 @@
       <c r="AS34" s="1">
         <v>0</v>
       </c>
-      <c r="AT34" s="1">
-        <v>0</v>
+      <c r="AT34" s="5">
+        <v>2</v>
       </c>
       <c r="AU34" s="1">
         <v>0</v>
@@ -17161,8 +17253,8 @@
       <c r="DK34" s="1">
         <v>0</v>
       </c>
-      <c r="DL34" s="1">
-        <v>0</v>
+      <c r="DL34" s="5">
+        <v>2</v>
       </c>
       <c r="DM34" s="1">
         <v>0</v>
@@ -17260,7 +17352,9 @@
       <c r="ER34" s="1">
         <v>0</v>
       </c>
-      <c r="ES34" s="1"/>
+      <c r="ES34" s="1">
+        <v>0</v>
+      </c>
       <c r="ET34" s="1"/>
       <c r="EU34" s="1"/>
       <c r="EV34" s="1"/>
@@ -17338,92 +17432,92 @@
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>0</v>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
+        <v>1</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1</v>
+      </c>
+      <c r="W35" s="3">
+        <v>1</v>
+      </c>
+      <c r="X35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>1</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
@@ -17431,8 +17525,8 @@
       <c r="AS35" s="1">
         <v>0</v>
       </c>
-      <c r="AT35" s="1">
-        <v>0</v>
+      <c r="AT35" s="5">
+        <v>2</v>
       </c>
       <c r="AU35" s="1">
         <v>0</v>
@@ -17443,95 +17537,95 @@
       <c r="AW35" s="1">
         <v>0</v>
       </c>
-      <c r="AX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA35" s="1">
-        <v>0</v>
+      <c r="AX35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BX35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BY35" s="3">
+        <v>1</v>
+      </c>
+      <c r="BZ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CA35" s="3">
+        <v>1</v>
       </c>
       <c r="CB35" s="1">
         <v>0</v>
@@ -17551,98 +17645,98 @@
       <c r="CG35" s="1">
         <v>0</v>
       </c>
-      <c r="CH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DJ35" s="1">
-        <v>0</v>
+      <c r="CH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CJ35" s="4">
+        <v>3</v>
+      </c>
+      <c r="CK35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CL35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CN35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CO35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CQ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CR35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CS35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CU35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CY35" s="3">
+        <v>1</v>
+      </c>
+      <c r="CZ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DD35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DE35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DJ35" s="3">
+        <v>1</v>
       </c>
       <c r="DK35" s="1">
         <v>0</v>
       </c>
-      <c r="DL35" s="1">
-        <v>0</v>
+      <c r="DL35" s="5">
+        <v>2</v>
       </c>
       <c r="DM35" s="1">
         <v>0</v>
@@ -17653,94 +17747,96 @@
       <c r="DO35" s="1">
         <v>0</v>
       </c>
-      <c r="DP35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY35" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EG35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EH35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP35" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER35" s="1">
-        <v>0</v>
-      </c>
-      <c r="ES35" s="1"/>
+      <c r="DP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DQ35" s="4">
+        <v>3</v>
+      </c>
+      <c r="DR35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DS35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DT35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DU35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DV35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DW35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DX35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DY35" s="3">
+        <v>1</v>
+      </c>
+      <c r="DZ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EC35" s="3">
+        <v>1</v>
+      </c>
+      <c r="ED35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EE35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EI35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EJ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EK35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EL35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EM35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EN35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EO35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EP35" s="3">
+        <v>1</v>
+      </c>
+      <c r="EQ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="ER35" s="3">
+        <v>1</v>
+      </c>
+      <c r="ES35" s="1">
+        <v>0</v>
+      </c>
       <c r="ET35" s="1"/>
       <c r="EU35" s="1"/>
       <c r="EV35" s="1"/>
@@ -17827,8 +17923,8 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="1">
-        <v>0</v>
+      <c r="R36" s="5">
+        <v>2</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -17911,8 +18007,8 @@
       <c r="AS36" s="1">
         <v>0</v>
       </c>
-      <c r="AT36" s="1">
-        <v>0</v>
+      <c r="AT36" s="5">
+        <v>2</v>
       </c>
       <c r="AU36" s="1">
         <v>0</v>
@@ -17926,8 +18022,8 @@
       <c r="AX36" s="1">
         <v>0</v>
       </c>
-      <c r="AY36" s="1">
-        <v>0</v>
+      <c r="AY36" s="5">
+        <v>2</v>
       </c>
       <c r="AZ36" s="1">
         <v>0</v>
@@ -18037,8 +18133,8 @@
       <c r="CI36" s="1">
         <v>0</v>
       </c>
-      <c r="CJ36" s="1">
-        <v>0</v>
+      <c r="CJ36" s="5">
+        <v>2</v>
       </c>
       <c r="CK36" s="1">
         <v>0</v>
@@ -18121,8 +18217,8 @@
       <c r="DK36" s="1">
         <v>0</v>
       </c>
-      <c r="DL36" s="1">
-        <v>0</v>
+      <c r="DL36" s="5">
+        <v>2</v>
       </c>
       <c r="DM36" s="1">
         <v>0</v>
@@ -18136,8 +18232,8 @@
       <c r="DP36" s="1">
         <v>0</v>
       </c>
-      <c r="DQ36" s="1">
-        <v>0</v>
+      <c r="DQ36" s="5">
+        <v>2</v>
       </c>
       <c r="DR36" s="1">
         <v>0</v>
@@ -18220,7 +18316,9 @@
       <c r="ER36" s="1">
         <v>0</v>
       </c>
-      <c r="ES36" s="1"/>
+      <c r="ES36" s="1">
+        <v>0</v>
+      </c>
       <c r="ET36" s="1"/>
       <c r="EU36" s="1"/>
       <c r="EV36" s="1"/>
@@ -18307,8 +18405,8 @@
       <c r="Q37" s="1">
         <v>0</v>
       </c>
-      <c r="R37" s="1">
-        <v>0</v>
+      <c r="R37" s="5">
+        <v>2</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -18391,8 +18489,8 @@
       <c r="AS37" s="1">
         <v>0</v>
       </c>
-      <c r="AT37" s="1">
-        <v>0</v>
+      <c r="AT37" s="5">
+        <v>2</v>
       </c>
       <c r="AU37" s="1">
         <v>0</v>
@@ -18406,8 +18504,8 @@
       <c r="AX37" s="1">
         <v>0</v>
       </c>
-      <c r="AY37" s="1">
-        <v>0</v>
+      <c r="AY37" s="5">
+        <v>2</v>
       </c>
       <c r="AZ37" s="1">
         <v>0</v>
@@ -18517,8 +18615,8 @@
       <c r="CI37" s="1">
         <v>0</v>
       </c>
-      <c r="CJ37" s="1">
-        <v>0</v>
+      <c r="CJ37" s="5">
+        <v>2</v>
       </c>
       <c r="CK37" s="1">
         <v>0</v>
@@ -18601,8 +18699,8 @@
       <c r="DK37" s="1">
         <v>0</v>
       </c>
-      <c r="DL37" s="1">
-        <v>0</v>
+      <c r="DL37" s="5">
+        <v>2</v>
       </c>
       <c r="DM37" s="1">
         <v>0</v>
@@ -18616,8 +18714,8 @@
       <c r="DP37" s="1">
         <v>0</v>
       </c>
-      <c r="DQ37" s="1">
-        <v>0</v>
+      <c r="DQ37" s="5">
+        <v>2</v>
       </c>
       <c r="DR37" s="1">
         <v>0</v>
@@ -18700,7 +18798,9 @@
       <c r="ER37" s="1">
         <v>0</v>
       </c>
-      <c r="ES37" s="1"/>
+      <c r="ES37" s="1">
+        <v>0</v>
+      </c>
       <c r="ET37" s="1"/>
       <c r="EU37" s="1"/>
       <c r="EV37" s="1"/>
@@ -18787,8 +18887,8 @@
       <c r="Q38" s="1">
         <v>0</v>
       </c>
-      <c r="R38" s="1">
-        <v>0</v>
+      <c r="R38" s="5">
+        <v>2</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -18871,8 +18971,8 @@
       <c r="AS38" s="1">
         <v>0</v>
       </c>
-      <c r="AT38" s="1">
-        <v>0</v>
+      <c r="AT38" s="5">
+        <v>2</v>
       </c>
       <c r="AU38" s="1">
         <v>0</v>
@@ -18886,8 +18986,8 @@
       <c r="AX38" s="1">
         <v>0</v>
       </c>
-      <c r="AY38" s="1">
-        <v>0</v>
+      <c r="AY38" s="5">
+        <v>2</v>
       </c>
       <c r="AZ38" s="1">
         <v>0</v>
@@ -18997,8 +19097,8 @@
       <c r="CI38" s="1">
         <v>0</v>
       </c>
-      <c r="CJ38" s="1">
-        <v>0</v>
+      <c r="CJ38" s="5">
+        <v>2</v>
       </c>
       <c r="CK38" s="1">
         <v>0</v>
@@ -19081,8 +19181,8 @@
       <c r="DK38" s="1">
         <v>0</v>
       </c>
-      <c r="DL38" s="1">
-        <v>0</v>
+      <c r="DL38" s="5">
+        <v>2</v>
       </c>
       <c r="DM38" s="1">
         <v>0</v>
@@ -19096,8 +19196,8 @@
       <c r="DP38" s="1">
         <v>0</v>
       </c>
-      <c r="DQ38" s="1">
-        <v>0</v>
+      <c r="DQ38" s="5">
+        <v>2</v>
       </c>
       <c r="DR38" s="1">
         <v>0</v>
@@ -19180,7 +19280,9 @@
       <c r="ER38" s="1">
         <v>0</v>
       </c>
-      <c r="ES38" s="1"/>
+      <c r="ES38" s="1">
+        <v>0</v>
+      </c>
       <c r="ET38" s="1"/>
       <c r="EU38" s="1"/>
       <c r="EV38" s="1"/>
@@ -19267,8 +19369,8 @@
       <c r="Q39" s="1">
         <v>0</v>
       </c>
-      <c r="R39" s="1">
-        <v>0</v>
+      <c r="R39" s="5">
+        <v>2</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -19351,8 +19453,8 @@
       <c r="AS39" s="1">
         <v>0</v>
       </c>
-      <c r="AT39" s="1">
-        <v>0</v>
+      <c r="AT39" s="5">
+        <v>2</v>
       </c>
       <c r="AU39" s="1">
         <v>0</v>
@@ -19366,8 +19468,8 @@
       <c r="AX39" s="1">
         <v>0</v>
       </c>
-      <c r="AY39" s="1">
-        <v>0</v>
+      <c r="AY39" s="5">
+        <v>2</v>
       </c>
       <c r="AZ39" s="1">
         <v>0</v>
@@ -19477,8 +19579,8 @@
       <c r="CI39" s="1">
         <v>0</v>
       </c>
-      <c r="CJ39" s="1">
-        <v>0</v>
+      <c r="CJ39" s="5">
+        <v>2</v>
       </c>
       <c r="CK39" s="1">
         <v>0</v>
@@ -19561,8 +19663,8 @@
       <c r="DK39" s="1">
         <v>0</v>
       </c>
-      <c r="DL39" s="1">
-        <v>0</v>
+      <c r="DL39" s="5">
+        <v>2</v>
       </c>
       <c r="DM39" s="1">
         <v>0</v>
@@ -19576,8 +19678,8 @@
       <c r="DP39" s="1">
         <v>0</v>
       </c>
-      <c r="DQ39" s="1">
-        <v>0</v>
+      <c r="DQ39" s="5">
+        <v>2</v>
       </c>
       <c r="DR39" s="1">
         <v>0</v>
@@ -19660,7 +19762,9 @@
       <c r="ER39" s="1">
         <v>0</v>
       </c>
-      <c r="ES39" s="1"/>
+      <c r="ES39" s="1">
+        <v>0</v>
+      </c>
       <c r="ET39" s="1"/>
       <c r="EU39" s="1"/>
       <c r="EV39" s="1"/>
@@ -19747,8 +19851,8 @@
       <c r="Q40" s="1">
         <v>0</v>
       </c>
-      <c r="R40" s="1">
-        <v>0</v>
+      <c r="R40" s="5">
+        <v>2</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -19831,8 +19935,8 @@
       <c r="AS40" s="1">
         <v>0</v>
       </c>
-      <c r="AT40" s="1">
-        <v>0</v>
+      <c r="AT40" s="5">
+        <v>2</v>
       </c>
       <c r="AU40" s="1">
         <v>0</v>
@@ -19846,8 +19950,8 @@
       <c r="AX40" s="1">
         <v>0</v>
       </c>
-      <c r="AY40" s="1">
-        <v>0</v>
+      <c r="AY40" s="5">
+        <v>2</v>
       </c>
       <c r="AZ40" s="1">
         <v>0</v>
@@ -19957,8 +20061,8 @@
       <c r="CI40" s="1">
         <v>0</v>
       </c>
-      <c r="CJ40" s="1">
-        <v>0</v>
+      <c r="CJ40" s="5">
+        <v>2</v>
       </c>
       <c r="CK40" s="1">
         <v>0</v>
@@ -20041,8 +20145,8 @@
       <c r="DK40" s="1">
         <v>0</v>
       </c>
-      <c r="DL40" s="1">
-        <v>0</v>
+      <c r="DL40" s="5">
+        <v>2</v>
       </c>
       <c r="DM40" s="1">
         <v>0</v>
@@ -20056,8 +20160,8 @@
       <c r="DP40" s="1">
         <v>0</v>
       </c>
-      <c r="DQ40" s="1">
-        <v>0</v>
+      <c r="DQ40" s="5">
+        <v>2</v>
       </c>
       <c r="DR40" s="1">
         <v>0</v>
@@ -20140,7 +20244,9 @@
       <c r="ER40" s="1">
         <v>0</v>
       </c>
-      <c r="ES40" s="1"/>
+      <c r="ES40" s="1">
+        <v>0</v>
+      </c>
       <c r="ET40" s="1"/>
       <c r="EU40" s="1"/>
       <c r="EV40" s="1"/>
@@ -20227,8 +20333,8 @@
       <c r="Q41" s="1">
         <v>0</v>
       </c>
-      <c r="R41" s="1">
-        <v>0</v>
+      <c r="R41" s="5">
+        <v>2</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -20311,8 +20417,8 @@
       <c r="AS41" s="1">
         <v>0</v>
       </c>
-      <c r="AT41" s="1">
-        <v>0</v>
+      <c r="AT41" s="5">
+        <v>2</v>
       </c>
       <c r="AU41" s="1">
         <v>0</v>
@@ -20326,8 +20432,8 @@
       <c r="AX41" s="1">
         <v>0</v>
       </c>
-      <c r="AY41" s="1">
-        <v>0</v>
+      <c r="AY41" s="5">
+        <v>2</v>
       </c>
       <c r="AZ41" s="1">
         <v>0</v>
@@ -20437,8 +20543,8 @@
       <c r="CI41" s="1">
         <v>0</v>
       </c>
-      <c r="CJ41" s="1">
-        <v>0</v>
+      <c r="CJ41" s="5">
+        <v>2</v>
       </c>
       <c r="CK41" s="1">
         <v>0</v>
@@ -20521,8 +20627,8 @@
       <c r="DK41" s="1">
         <v>0</v>
       </c>
-      <c r="DL41" s="1">
-        <v>0</v>
+      <c r="DL41" s="5">
+        <v>2</v>
       </c>
       <c r="DM41" s="1">
         <v>0</v>
@@ -20536,8 +20642,8 @@
       <c r="DP41" s="1">
         <v>0</v>
       </c>
-      <c r="DQ41" s="1">
-        <v>0</v>
+      <c r="DQ41" s="5">
+        <v>2</v>
       </c>
       <c r="DR41" s="1">
         <v>0</v>
@@ -20620,7 +20726,9 @@
       <c r="ER41" s="1">
         <v>0</v>
       </c>
-      <c r="ES41" s="1"/>
+      <c r="ES41" s="1">
+        <v>0</v>
+      </c>
       <c r="ET41" s="1"/>
       <c r="EU41" s="1"/>
       <c r="EV41" s="1"/>
@@ -20707,8 +20815,8 @@
       <c r="Q42" s="1">
         <v>0</v>
       </c>
-      <c r="R42" s="1">
-        <v>0</v>
+      <c r="R42" s="5">
+        <v>2</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -20791,8 +20899,8 @@
       <c r="AS42" s="1">
         <v>0</v>
       </c>
-      <c r="AT42" s="1">
-        <v>0</v>
+      <c r="AT42" s="5">
+        <v>2</v>
       </c>
       <c r="AU42" s="1">
         <v>0</v>
@@ -20806,8 +20914,8 @@
       <c r="AX42" s="1">
         <v>0</v>
       </c>
-      <c r="AY42" s="1">
-        <v>0</v>
+      <c r="AY42" s="5">
+        <v>2</v>
       </c>
       <c r="AZ42" s="1">
         <v>0</v>
@@ -20917,8 +21025,8 @@
       <c r="CI42" s="1">
         <v>0</v>
       </c>
-      <c r="CJ42" s="1">
-        <v>0</v>
+      <c r="CJ42" s="5">
+        <v>2</v>
       </c>
       <c r="CK42" s="1">
         <v>0</v>
@@ -21001,8 +21109,8 @@
       <c r="DK42" s="1">
         <v>0</v>
       </c>
-      <c r="DL42" s="1">
-        <v>0</v>
+      <c r="DL42" s="5">
+        <v>2</v>
       </c>
       <c r="DM42" s="1">
         <v>0</v>
@@ -21016,8 +21124,8 @@
       <c r="DP42" s="1">
         <v>0</v>
       </c>
-      <c r="DQ42" s="1">
-        <v>0</v>
+      <c r="DQ42" s="5">
+        <v>2</v>
       </c>
       <c r="DR42" s="1">
         <v>0</v>
@@ -21100,7 +21208,9 @@
       <c r="ER42" s="1">
         <v>0</v>
       </c>
-      <c r="ES42" s="1"/>
+      <c r="ES42" s="1">
+        <v>0</v>
+      </c>
       <c r="ET42" s="1"/>
       <c r="EU42" s="1"/>
       <c r="EV42" s="1"/>
@@ -21187,8 +21297,8 @@
       <c r="Q43" s="1">
         <v>0</v>
       </c>
-      <c r="R43" s="1">
-        <v>0</v>
+      <c r="R43" s="5">
+        <v>2</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -21271,8 +21381,8 @@
       <c r="AS43" s="1">
         <v>0</v>
       </c>
-      <c r="AT43" s="1">
-        <v>0</v>
+      <c r="AT43" s="5">
+        <v>2</v>
       </c>
       <c r="AU43" s="1">
         <v>0</v>
@@ -21286,8 +21396,8 @@
       <c r="AX43" s="1">
         <v>0</v>
       </c>
-      <c r="AY43" s="1">
-        <v>0</v>
+      <c r="AY43" s="5">
+        <v>2</v>
       </c>
       <c r="AZ43" s="1">
         <v>0</v>
@@ -21397,8 +21507,8 @@
       <c r="CI43" s="1">
         <v>0</v>
       </c>
-      <c r="CJ43" s="1">
-        <v>0</v>
+      <c r="CJ43" s="5">
+        <v>2</v>
       </c>
       <c r="CK43" s="1">
         <v>0</v>
@@ -21481,8 +21591,8 @@
       <c r="DK43" s="1">
         <v>0</v>
       </c>
-      <c r="DL43" s="1">
-        <v>0</v>
+      <c r="DL43" s="5">
+        <v>2</v>
       </c>
       <c r="DM43" s="1">
         <v>0</v>
@@ -21496,8 +21606,8 @@
       <c r="DP43" s="1">
         <v>0</v>
       </c>
-      <c r="DQ43" s="1">
-        <v>0</v>
+      <c r="DQ43" s="5">
+        <v>2</v>
       </c>
       <c r="DR43" s="1">
         <v>0</v>
@@ -21580,7 +21690,9 @@
       <c r="ER43" s="1">
         <v>0</v>
       </c>
-      <c r="ES43" s="1"/>
+      <c r="ES43" s="1">
+        <v>0</v>
+      </c>
       <c r="ET43" s="1"/>
       <c r="EU43" s="1"/>
       <c r="EV43" s="1"/>
@@ -21667,8 +21779,8 @@
       <c r="Q44" s="1">
         <v>0</v>
       </c>
-      <c r="R44" s="1">
-        <v>0</v>
+      <c r="R44" s="5">
+        <v>2</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -21751,8 +21863,8 @@
       <c r="AS44" s="1">
         <v>0</v>
       </c>
-      <c r="AT44" s="1">
-        <v>0</v>
+      <c r="AT44" s="5">
+        <v>2</v>
       </c>
       <c r="AU44" s="1">
         <v>0</v>
@@ -21766,8 +21878,8 @@
       <c r="AX44" s="1">
         <v>0</v>
       </c>
-      <c r="AY44" s="1">
-        <v>0</v>
+      <c r="AY44" s="5">
+        <v>2</v>
       </c>
       <c r="AZ44" s="1">
         <v>0</v>
@@ -21877,8 +21989,8 @@
       <c r="CI44" s="1">
         <v>0</v>
       </c>
-      <c r="CJ44" s="1">
-        <v>0</v>
+      <c r="CJ44" s="5">
+        <v>2</v>
       </c>
       <c r="CK44" s="1">
         <v>0</v>
@@ -21961,8 +22073,8 @@
       <c r="DK44" s="1">
         <v>0</v>
       </c>
-      <c r="DL44" s="1">
-        <v>0</v>
+      <c r="DL44" s="5">
+        <v>2</v>
       </c>
       <c r="DM44" s="1">
         <v>0</v>
@@ -21976,8 +22088,8 @@
       <c r="DP44" s="1">
         <v>0</v>
       </c>
-      <c r="DQ44" s="1">
-        <v>0</v>
+      <c r="DQ44" s="5">
+        <v>2</v>
       </c>
       <c r="DR44" s="1">
         <v>0</v>
@@ -22060,7 +22172,9 @@
       <c r="ER44" s="1">
         <v>0</v>
       </c>
-      <c r="ES44" s="1"/>
+      <c r="ES44" s="1">
+        <v>0</v>
+      </c>
       <c r="ET44" s="1"/>
       <c r="EU44" s="1"/>
       <c r="EV44" s="1"/>
@@ -22147,8 +22261,8 @@
       <c r="Q45" s="1">
         <v>0</v>
       </c>
-      <c r="R45" s="1">
-        <v>0</v>
+      <c r="R45" s="5">
+        <v>2</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -22246,8 +22360,8 @@
       <c r="AX45" s="1">
         <v>0</v>
       </c>
-      <c r="AY45" s="1">
-        <v>0</v>
+      <c r="AY45" s="5">
+        <v>2</v>
       </c>
       <c r="AZ45" s="1">
         <v>0</v>
@@ -22357,8 +22471,8 @@
       <c r="CI45" s="1">
         <v>0</v>
       </c>
-      <c r="CJ45" s="1">
-        <v>0</v>
+      <c r="CJ45" s="5">
+        <v>2</v>
       </c>
       <c r="CK45" s="1">
         <v>0</v>
@@ -22456,8 +22570,8 @@
       <c r="DP45" s="1">
         <v>0</v>
       </c>
-      <c r="DQ45" s="1">
-        <v>0</v>
+      <c r="DQ45" s="5">
+        <v>2</v>
       </c>
       <c r="DR45" s="1">
         <v>0</v>
@@ -22540,7 +22654,9 @@
       <c r="ER45" s="1">
         <v>0</v>
       </c>
-      <c r="ES45" s="1"/>
+      <c r="ES45" s="1">
+        <v>0</v>
+      </c>
       <c r="ET45" s="1"/>
       <c r="EU45" s="1"/>
       <c r="EV45" s="1"/>
@@ -23020,7 +23136,9 @@
       <c r="ER46" s="1">
         <v>0</v>
       </c>
-      <c r="ES46" s="1"/>
+      <c r="ES46" s="1">
+        <v>0</v>
+      </c>
       <c r="ET46" s="1"/>
       <c r="EU46" s="1"/>
       <c r="EV46" s="1"/>
@@ -23055,7 +23173,7 @@
       <c r="FY46" s="1"/>
       <c r="FZ46" s="1"/>
     </row>
-    <row r="47" spans="1:182">
+    <row r="47" spans="1:149">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -23500,42 +23618,11 @@
       <c r="ER47" s="2">
         <v>1</v>
       </c>
-      <c r="ES47" s="2"/>
-      <c r="ET47" s="2"/>
-      <c r="EU47" s="2"/>
-      <c r="EV47" s="2"/>
-      <c r="EW47" s="2"/>
-      <c r="EX47" s="2"/>
-      <c r="EY47" s="2"/>
-      <c r="EZ47" s="2"/>
-      <c r="FA47" s="2"/>
-      <c r="FB47" s="2"/>
-      <c r="FC47" s="2"/>
-      <c r="FD47" s="2"/>
-      <c r="FE47" s="2"/>
-      <c r="FF47" s="2"/>
-      <c r="FG47" s="2"/>
-      <c r="FH47" s="2"/>
-      <c r="FI47" s="2"/>
-      <c r="FJ47" s="2"/>
-      <c r="FK47" s="2"/>
-      <c r="FL47" s="2"/>
-      <c r="FM47" s="2"/>
-      <c r="FN47" s="2"/>
-      <c r="FO47" s="2"/>
-      <c r="FP47" s="2"/>
-      <c r="FQ47" s="2"/>
-      <c r="FR47" s="2"/>
-      <c r="FS47" s="2"/>
-      <c r="FT47" s="2"/>
-      <c r="FU47" s="2"/>
-      <c r="FV47" s="2"/>
-      <c r="FW47" s="2"/>
-      <c r="FX47" s="2"/>
-      <c r="FY47" s="2"/>
-      <c r="FZ47" s="2"/>
+      <c r="ES47" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:182">
+    <row r="48" spans="1:149">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -23980,42 +24067,11 @@
       <c r="ER48" s="2">
         <v>1</v>
       </c>
-      <c r="ES48" s="2"/>
-      <c r="ET48" s="2"/>
-      <c r="EU48" s="2"/>
-      <c r="EV48" s="2"/>
-      <c r="EW48" s="2"/>
-      <c r="EX48" s="2"/>
-      <c r="EY48" s="2"/>
-      <c r="EZ48" s="2"/>
-      <c r="FA48" s="2"/>
-      <c r="FB48" s="2"/>
-      <c r="FC48" s="2"/>
-      <c r="FD48" s="2"/>
-      <c r="FE48" s="2"/>
-      <c r="FF48" s="2"/>
-      <c r="FG48" s="2"/>
-      <c r="FH48" s="2"/>
-      <c r="FI48" s="2"/>
-      <c r="FJ48" s="2"/>
-      <c r="FK48" s="2"/>
-      <c r="FL48" s="2"/>
-      <c r="FM48" s="2"/>
-      <c r="FN48" s="2"/>
-      <c r="FO48" s="2"/>
-      <c r="FP48" s="2"/>
-      <c r="FQ48" s="2"/>
-      <c r="FR48" s="2"/>
-      <c r="FS48" s="2"/>
-      <c r="FT48" s="2"/>
-      <c r="FU48" s="2"/>
-      <c r="FV48" s="2"/>
-      <c r="FW48" s="2"/>
-      <c r="FX48" s="2"/>
-      <c r="FY48" s="2"/>
-      <c r="FZ48" s="2"/>
+      <c r="ES48" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:182">
+    <row r="49" spans="1:149">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -24460,42 +24516,11 @@
       <c r="ER49" s="2">
         <v>1</v>
       </c>
-      <c r="ES49" s="2"/>
-      <c r="ET49" s="2"/>
-      <c r="EU49" s="2"/>
-      <c r="EV49" s="2"/>
-      <c r="EW49" s="2"/>
-      <c r="EX49" s="2"/>
-      <c r="EY49" s="2"/>
-      <c r="EZ49" s="2"/>
-      <c r="FA49" s="2"/>
-      <c r="FB49" s="2"/>
-      <c r="FC49" s="2"/>
-      <c r="FD49" s="2"/>
-      <c r="FE49" s="2"/>
-      <c r="FF49" s="2"/>
-      <c r="FG49" s="2"/>
-      <c r="FH49" s="2"/>
-      <c r="FI49" s="2"/>
-      <c r="FJ49" s="2"/>
-      <c r="FK49" s="2"/>
-      <c r="FL49" s="2"/>
-      <c r="FM49" s="2"/>
-      <c r="FN49" s="2"/>
-      <c r="FO49" s="2"/>
-      <c r="FP49" s="2"/>
-      <c r="FQ49" s="2"/>
-      <c r="FR49" s="2"/>
-      <c r="FS49" s="2"/>
-      <c r="FT49" s="2"/>
-      <c r="FU49" s="2"/>
-      <c r="FV49" s="2"/>
-      <c r="FW49" s="2"/>
-      <c r="FX49" s="2"/>
-      <c r="FY49" s="2"/>
-      <c r="FZ49" s="2"/>
+      <c r="ES49" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:182">
+    <row r="50" spans="1:149">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -24940,42 +24965,11 @@
       <c r="ER50" s="2">
         <v>1</v>
       </c>
-      <c r="ES50" s="2"/>
-      <c r="ET50" s="2"/>
-      <c r="EU50" s="2"/>
-      <c r="EV50" s="2"/>
-      <c r="EW50" s="2"/>
-      <c r="EX50" s="2"/>
-      <c r="EY50" s="2"/>
-      <c r="EZ50" s="2"/>
-      <c r="FA50" s="2"/>
-      <c r="FB50" s="2"/>
-      <c r="FC50" s="2"/>
-      <c r="FD50" s="2"/>
-      <c r="FE50" s="2"/>
-      <c r="FF50" s="2"/>
-      <c r="FG50" s="2"/>
-      <c r="FH50" s="2"/>
-      <c r="FI50" s="2"/>
-      <c r="FJ50" s="2"/>
-      <c r="FK50" s="2"/>
-      <c r="FL50" s="2"/>
-      <c r="FM50" s="2"/>
-      <c r="FN50" s="2"/>
-      <c r="FO50" s="2"/>
-      <c r="FP50" s="2"/>
-      <c r="FQ50" s="2"/>
-      <c r="FR50" s="2"/>
-      <c r="FS50" s="2"/>
-      <c r="FT50" s="2"/>
-      <c r="FU50" s="2"/>
-      <c r="FV50" s="2"/>
-      <c r="FW50" s="2"/>
-      <c r="FX50" s="2"/>
-      <c r="FY50" s="2"/>
-      <c r="FZ50" s="2"/>
+      <c r="ES50" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:182">
+    <row r="51" spans="1:149">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -25420,42 +25414,11 @@
       <c r="ER51" s="2">
         <v>1</v>
       </c>
-      <c r="ES51" s="2"/>
-      <c r="ET51" s="2"/>
-      <c r="EU51" s="2"/>
-      <c r="EV51" s="2"/>
-      <c r="EW51" s="2"/>
-      <c r="EX51" s="2"/>
-      <c r="EY51" s="2"/>
-      <c r="EZ51" s="2"/>
-      <c r="FA51" s="2"/>
-      <c r="FB51" s="2"/>
-      <c r="FC51" s="2"/>
-      <c r="FD51" s="2"/>
-      <c r="FE51" s="2"/>
-      <c r="FF51" s="2"/>
-      <c r="FG51" s="2"/>
-      <c r="FH51" s="2"/>
-      <c r="FI51" s="2"/>
-      <c r="FJ51" s="2"/>
-      <c r="FK51" s="2"/>
-      <c r="FL51" s="2"/>
-      <c r="FM51" s="2"/>
-      <c r="FN51" s="2"/>
-      <c r="FO51" s="2"/>
-      <c r="FP51" s="2"/>
-      <c r="FQ51" s="2"/>
-      <c r="FR51" s="2"/>
-      <c r="FS51" s="2"/>
-      <c r="FT51" s="2"/>
-      <c r="FU51" s="2"/>
-      <c r="FV51" s="2"/>
-      <c r="FW51" s="2"/>
-      <c r="FX51" s="2"/>
-      <c r="FY51" s="2"/>
-      <c r="FZ51" s="2"/>
+      <c r="ES51" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:182">
+    <row r="52" spans="1:149">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -25900,42 +25863,11 @@
       <c r="ER52" s="2">
         <v>1</v>
       </c>
-      <c r="ES52" s="2"/>
-      <c r="ET52" s="2"/>
-      <c r="EU52" s="2"/>
-      <c r="EV52" s="2"/>
-      <c r="EW52" s="2"/>
-      <c r="EX52" s="2"/>
-      <c r="EY52" s="2"/>
-      <c r="EZ52" s="2"/>
-      <c r="FA52" s="2"/>
-      <c r="FB52" s="2"/>
-      <c r="FC52" s="2"/>
-      <c r="FD52" s="2"/>
-      <c r="FE52" s="2"/>
-      <c r="FF52" s="2"/>
-      <c r="FG52" s="2"/>
-      <c r="FH52" s="2"/>
-      <c r="FI52" s="2"/>
-      <c r="FJ52" s="2"/>
-      <c r="FK52" s="2"/>
-      <c r="FL52" s="2"/>
-      <c r="FM52" s="2"/>
-      <c r="FN52" s="2"/>
-      <c r="FO52" s="2"/>
-      <c r="FP52" s="2"/>
-      <c r="FQ52" s="2"/>
-      <c r="FR52" s="2"/>
-      <c r="FS52" s="2"/>
-      <c r="FT52" s="2"/>
-      <c r="FU52" s="2"/>
-      <c r="FV52" s="2"/>
-      <c r="FW52" s="2"/>
-      <c r="FX52" s="2"/>
-      <c r="FY52" s="2"/>
-      <c r="FZ52" s="2"/>
+      <c r="ES52" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:182">
+    <row r="53" spans="1:149">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -26380,42 +26312,11 @@
       <c r="ER53" s="2">
         <v>1</v>
       </c>
-      <c r="ES53" s="2"/>
-      <c r="ET53" s="2"/>
-      <c r="EU53" s="2"/>
-      <c r="EV53" s="2"/>
-      <c r="EW53" s="2"/>
-      <c r="EX53" s="2"/>
-      <c r="EY53" s="2"/>
-      <c r="EZ53" s="2"/>
-      <c r="FA53" s="2"/>
-      <c r="FB53" s="2"/>
-      <c r="FC53" s="2"/>
-      <c r="FD53" s="2"/>
-      <c r="FE53" s="2"/>
-      <c r="FF53" s="2"/>
-      <c r="FG53" s="2"/>
-      <c r="FH53" s="2"/>
-      <c r="FI53" s="2"/>
-      <c r="FJ53" s="2"/>
-      <c r="FK53" s="2"/>
-      <c r="FL53" s="2"/>
-      <c r="FM53" s="2"/>
-      <c r="FN53" s="2"/>
-      <c r="FO53" s="2"/>
-      <c r="FP53" s="2"/>
-      <c r="FQ53" s="2"/>
-      <c r="FR53" s="2"/>
-      <c r="FS53" s="2"/>
-      <c r="FT53" s="2"/>
-      <c r="FU53" s="2"/>
-      <c r="FV53" s="2"/>
-      <c r="FW53" s="2"/>
-      <c r="FX53" s="2"/>
-      <c r="FY53" s="2"/>
-      <c r="FZ53" s="2"/>
+      <c r="ES53" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:182">
+    <row r="54" spans="1:149">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -26860,42 +26761,11 @@
       <c r="ER54" s="2">
         <v>1</v>
       </c>
-      <c r="ES54" s="2"/>
-      <c r="ET54" s="2"/>
-      <c r="EU54" s="2"/>
-      <c r="EV54" s="2"/>
-      <c r="EW54" s="2"/>
-      <c r="EX54" s="2"/>
-      <c r="EY54" s="2"/>
-      <c r="EZ54" s="2"/>
-      <c r="FA54" s="2"/>
-      <c r="FB54" s="2"/>
-      <c r="FC54" s="2"/>
-      <c r="FD54" s="2"/>
-      <c r="FE54" s="2"/>
-      <c r="FF54" s="2"/>
-      <c r="FG54" s="2"/>
-      <c r="FH54" s="2"/>
-      <c r="FI54" s="2"/>
-      <c r="FJ54" s="2"/>
-      <c r="FK54" s="2"/>
-      <c r="FL54" s="2"/>
-      <c r="FM54" s="2"/>
-      <c r="FN54" s="2"/>
-      <c r="FO54" s="2"/>
-      <c r="FP54" s="2"/>
-      <c r="FQ54" s="2"/>
-      <c r="FR54" s="2"/>
-      <c r="FS54" s="2"/>
-      <c r="FT54" s="2"/>
-      <c r="FU54" s="2"/>
-      <c r="FV54" s="2"/>
-      <c r="FW54" s="2"/>
-      <c r="FX54" s="2"/>
-      <c r="FY54" s="2"/>
-      <c r="FZ54" s="2"/>
+      <c r="ES54" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:181">
+    <row r="55" spans="1:149">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -27340,39 +27210,9 @@
       <c r="ER55" s="2">
         <v>1</v>
       </c>
-      <c r="ES55" s="2"/>
-      <c r="ET55" s="2"/>
-      <c r="EU55" s="2"/>
-      <c r="EV55" s="2"/>
-      <c r="EW55" s="2"/>
-      <c r="EX55" s="2"/>
-      <c r="EY55" s="2"/>
-      <c r="EZ55" s="2"/>
-      <c r="FA55" s="2"/>
-      <c r="FB55" s="2"/>
-      <c r="FC55" s="2"/>
-      <c r="FD55" s="2"/>
-      <c r="FE55" s="2"/>
-      <c r="FF55" s="2"/>
-      <c r="FG55" s="2"/>
-      <c r="FH55" s="2"/>
-      <c r="FI55" s="2"/>
-      <c r="FJ55" s="2"/>
-      <c r="FK55" s="2"/>
-      <c r="FL55" s="2"/>
-      <c r="FM55" s="2"/>
-      <c r="FN55" s="2"/>
-      <c r="FO55" s="2"/>
-      <c r="FP55" s="2"/>
-      <c r="FQ55" s="2"/>
-      <c r="FR55" s="2"/>
-      <c r="FS55" s="2"/>
-      <c r="FT55" s="2"/>
-      <c r="FU55" s="2"/>
-      <c r="FV55" s="2"/>
-      <c r="FW55" s="2"/>
-      <c r="FX55" s="2"/>
-      <c r="FY55" s="2"/>
+      <c r="ES55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:182">
       <c r="A56" s="1"/>
